--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TIPS AND TRICKS</t>
+  </si>
+  <si>
+    <t>tips and tricks</t>
   </si>
 </sst>
 </file>
@@ -74,11 +77,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,43 +382,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="2"/>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
